--- a/OpenCart-RTM.xlsx
+++ b/OpenCart-RTM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Full Stack QA_05-Jan-2021\Day11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Testing\Manual Testing Projects\OpenCart Test Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A505EC97-D8B0-4AB0-AB84-F75DC257E5C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E09BA5-B56A-476E-B5B7-8372A8398301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Project Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>OpenCart</t>
   </si>
   <si>
-    <t>Pavan</t>
-  </si>
-  <si>
     <t>Validate the working of Register Account functionality</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>FRS</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t>Tes Case ID'S</t>
@@ -138,6 +132,9 @@
 TC_LF_022
 TC_LF_023
 </t>
+  </si>
+  <si>
+    <t>Syeda Tamanna Sheme</t>
   </si>
 </sst>
 </file>
@@ -303,9 +300,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -336,8 +330,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,118 +617,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="31.140625" style="1"/>
+    <col min="3" max="3" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="31.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45748</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <v>45757</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="352.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="357" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="306" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
